--- a/biology/Botanique/Symplocos_guianensis/Symplocos_guianensis.xlsx
+++ b/biology/Botanique/Symplocos_guianensis/Symplocos_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symplocos guianensis est une espèce de plantes à fleurs de la famille des Symplocaceae originaire du plateau des Guyanes.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Symplocos guianensis est un arbrisseau ou un arbuste atteignant 2 m de haut, avec une pubescence apprimée ou séricée, de couleur brun rouille sur les tiges.
 Les feuilles mesurent (3)8–11 × (1,5)2–4 cm et sont pétiolées, chartacées, avec des marges entières à indistinctement dentées.
@@ -520,7 +534,7 @@
 Les lobes du calice sont longs de (2)2,5–3 mm, de forme aiguë à acuminée à l'apex, lancéolée ou triangulaire, ciliée par longs poils mous.
 La corolle est de couleur blanche, longue de (7)8–9 mm, à lobes de forme obovale ou oblongue, arrondis ou obtus.
 L'ovaire poilu contient 3 ou 5 loge, et porte un style à base pubescente.
-Le fruit globuleux mesure 6 mm de diamètre[4],[5],[6].
+Le fruit globuleux mesure 6 mm de diamètre.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symplocos guianensis est présent du Venezuela (Amazonas) au Brésil en passant par le Guyana, le Suriname, la Guyane[4], et la Bolivie[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symplocos guianensis est présent du Venezuela (Amazonas) au Brésil en passant par le Guyana, le Suriname, la Guyane, et la Bolivie.
 </t>
         </is>
       </c>
@@ -580,12 +596,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Symplocos guianensis pousse dans les forêts sempervirentes de plaine, près des cours d'eau et des bords de route, autour de 50–100 m au Venezuela[4], et dans les lisières forêt/savane en Guyane[5]. Au Brésil, on trouve Symplocos guianensis dans les zones de savanes amazoniennes disjointes [8], comme dans le bassin moyen du Xingu, dans la campina (petites zones de cerrado entremêlées d'associations forestières), le campo (terme général désignant tous les types de savane et également utilisé pour désigner les savanes herbeuses avec peu ou pas d'arbres ou d'arbustes), la forêt secondaire, et le capoeiro (végétation secondaire associée aux cultures récemment abandonnés et aux zones perturbées)[9].
-Il fleurit en Guyane en janvier-décembre[5].
-On a décrit l'habitat naturel de Symplocos guianensis dans les savanes du nord du Suriname[10], ainsi que son système racinaire[11].
-Symplocos guianensis est une plante ressource pour les Brachyteles spp. du Brésil[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Symplocos guianensis pousse dans les forêts sempervirentes de plaine, près des cours d'eau et des bords de route, autour de 50–100 m au Venezuela, et dans les lisières forêt/savane en Guyane. Au Brésil, on trouve Symplocos guianensis dans les zones de savanes amazoniennes disjointes , comme dans le bassin moyen du Xingu, dans la campina (petites zones de cerrado entremêlées d'associations forestières), le campo (terme général désignant tous les types de savane et également utilisé pour désigner les savanes herbeuses avec peu ou pas d'arbres ou d'arbustes), la forêt secondaire, et le capoeiro (végétation secondaire associée aux cultures récemment abandonnés et aux zones perturbées).
+Il fleurit en Guyane en janvier-décembre.
+On a décrit l'habitat naturel de Symplocos guianensis dans les savanes du nord du Suriname, ainsi que son système racinaire.
+Symplocos guianensis est une plante ressource pour les Brachyteles spp. du Brésil.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « CIPONIMA Guianenſis. (Tabula 226.)
 Arbor, trunco ſeptem-pedali ; rami plures ; ramusculi alterni, villoſi, coloris roſacei. Folia alterna, petiolata, ovara, oblonga, integerrima, acuminata, glabra. Flores corymboſi axillares, ſubſeſſiles. Squama calicinæ villoſæ, villo roſaceo. Calix villoſus. Corolla alba, lobis ad oras luteis. Bacca nigra, carnoſa.
 Florebat Septembri.
